--- a/dataWIN.xlsx
+++ b/dataWIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C42A3-EFB1-48A7-8B96-44E3F48F8C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628E485-AC6E-4D4A-B62B-01686434E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5A65041-E374-40FF-89DF-DB491261A2B5}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Suscripcion</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,11 +394,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F53ED-FE53-42D4-BFD6-17A6F2615A89}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -395,24 +404,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B1">
-        <v>23585904420</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B2">
-        <v>5896476105</v>
+        <v>23585904420</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B3">
         <v>5896476105</v>
@@ -420,7 +429,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B4">
         <v>5896476105</v>
@@ -428,7 +437,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B5">
         <v>5896476105</v>
@@ -436,31 +445,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B6">
-        <v>11792952210</v>
+        <v>5896476105</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B7">
-        <v>23585904420</v>
+        <v>11792952210</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B8">
-        <v>5896476105</v>
+        <v>23585904420</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B9">
         <v>5896476105</v>
@@ -468,7 +477,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B10">
         <v>5896476105</v>
@@ -476,7 +485,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B11">
         <v>5896476105</v>
@@ -484,31 +493,31 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B12">
-        <v>11792952210</v>
+        <v>5896476105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B13">
-        <v>26779942611.600002</v>
+        <v>11792952210</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B14">
-        <v>6694985652.9000006</v>
+        <v>26779942611.600002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B15">
         <v>6694985652.9000006</v>
@@ -516,7 +525,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B16">
         <v>6694985652.9000006</v>
@@ -524,7 +533,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B17">
         <v>6694985652.9000006</v>
@@ -532,31 +541,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B18">
-        <v>13389971305.800001</v>
+        <v>6694985652.9000006</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B19">
-        <v>26779942611.600002</v>
+        <v>13389971305.800001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B20">
-        <v>6694985652.9000006</v>
+        <v>26779942611.600002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B21">
         <v>6694985652.9000006</v>
@@ -564,7 +573,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B22">
         <v>6694985652.9000006</v>
@@ -572,7 +581,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B23">
         <v>6694985652.9000006</v>
@@ -580,31 +589,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B24">
-        <v>13389971305.800001</v>
+        <v>6694985652.9000006</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B25">
-        <v>30044063132.600002</v>
+        <v>13389971305.800001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B26">
-        <v>7511015783.1500006</v>
+        <v>30044063132.600002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B27">
         <v>7511015783.1500006</v>
@@ -612,7 +621,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B28">
         <v>7511015783.1500006</v>
@@ -620,7 +629,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B29">
         <v>7511015783.1500006</v>
@@ -628,31 +637,31 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B30">
-        <v>15022031566.300001</v>
+        <v>7511015783.1500006</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B31">
-        <v>30044063132.600002</v>
+        <v>15022031566.300001</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B32">
-        <v>7511015783.1500006</v>
+        <v>30044063132.600002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B33">
         <v>7511015783.1500006</v>
@@ -660,7 +669,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B34">
         <v>7511015783.1500006</v>
@@ -668,7 +677,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B35">
         <v>7511015783.1500006</v>
@@ -676,31 +685,31 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B36">
-        <v>15022031566.300001</v>
+        <v>7511015783.1500006</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B37">
-        <v>26879347135</v>
+        <v>15022031566.300001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B38">
-        <v>6719836783.75</v>
+        <v>26879347135</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B39">
         <v>6719836783.75</v>
@@ -708,7 +717,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B40">
         <v>6719836783.75</v>
@@ -716,7 +725,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B41">
         <v>6719836783.75</v>
@@ -724,31 +733,31 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B42">
-        <v>13439673567.5</v>
+        <v>6719836783.75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B43">
-        <v>26879347135</v>
+        <v>13439673567.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B44">
-        <v>6719836783.75</v>
+        <v>26879347135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B45">
         <v>6719836783.75</v>
@@ -756,7 +765,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B46">
         <v>6719836783.75</v>
@@ -764,7 +773,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B47">
         <v>6719836783.75</v>
@@ -772,31 +781,31 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B48">
-        <v>13439673567.5</v>
+        <v>6719836783.75</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B49">
-        <v>43181822096.200005</v>
+        <v>13439673567.5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B50">
-        <v>10795455524.050001</v>
+        <v>43181822096.200005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B51">
         <v>10795455524.050001</v>
@@ -804,7 +813,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B52">
         <v>10795455524.050001</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B53">
         <v>10795455524.050001</v>
@@ -820,31 +829,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B54">
-        <v>21590911048.100002</v>
+        <v>10795455524.050001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B55">
-        <v>43181822096.200005</v>
+        <v>21590911048.100002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B56">
-        <v>10795455524.050001</v>
+        <v>43181822096.200005</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B57">
         <v>10795455524.050001</v>
@@ -852,7 +861,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B58">
         <v>10795455524.050001</v>
@@ -860,7 +869,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B59">
         <v>10795455524.050001</v>
@@ -868,9 +877,17 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B60">
+        <v>10795455524.050001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>44531</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>21590911048.100002</v>
       </c>
     </row>

--- a/dataWIN.xlsx
+++ b/dataWIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5628E485-AC6E-4D4A-B62B-01686434E212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0086AF7-EC83-4F27-B477-3AA9AEC5F973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C5A65041-E374-40FF-89DF-DB491261A2B5}"/>
   </bookViews>
@@ -394,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3F53ED-FE53-42D4-BFD6-17A6F2615A89}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A2:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,33 +403,25 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42736</v>
-      </c>
-      <c r="B2">
-        <v>23585904420</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42767</v>
+        <v>42736</v>
       </c>
       <c r="B3">
-        <v>5896476105</v>
+        <v>23585904420</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>42795</v>
+        <v>42767</v>
       </c>
       <c r="B4">
         <v>5896476105</v>
@@ -437,7 +429,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42826</v>
+        <v>42795</v>
       </c>
       <c r="B5">
         <v>5896476105</v>
@@ -445,7 +437,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>42856</v>
+        <v>42826</v>
       </c>
       <c r="B6">
         <v>5896476105</v>
@@ -453,31 +445,31 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>42887</v>
+        <v>42856</v>
       </c>
       <c r="B7">
-        <v>11792952210</v>
+        <v>5896476105</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>42917</v>
+        <v>42887</v>
       </c>
       <c r="B8">
-        <v>23585904420</v>
+        <v>11792952210</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>42948</v>
+        <v>42917</v>
       </c>
       <c r="B9">
-        <v>5896476105</v>
+        <v>23585904420</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B10">
         <v>5896476105</v>
@@ -485,7 +477,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B11">
         <v>5896476105</v>
@@ -493,7 +485,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B12">
         <v>5896476105</v>
@@ -501,31 +493,31 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B13">
-        <v>11792952210</v>
+        <v>5896476105</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B14">
-        <v>26779942611.600002</v>
+        <v>11792952210</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B15">
-        <v>6694985652.9000006</v>
+        <v>26779942611.600002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B16">
         <v>6694985652.9000006</v>
@@ -533,7 +525,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B17">
         <v>6694985652.9000006</v>
@@ -541,7 +533,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B18">
         <v>6694985652.9000006</v>
@@ -549,31 +541,31 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B19">
-        <v>13389971305.800001</v>
+        <v>6694985652.9000006</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B20">
-        <v>26779942611.600002</v>
+        <v>13389971305.800001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B21">
-        <v>6694985652.9000006</v>
+        <v>26779942611.600002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B22">
         <v>6694985652.9000006</v>
@@ -581,7 +573,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B23">
         <v>6694985652.9000006</v>
@@ -589,7 +581,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B24">
         <v>6694985652.9000006</v>
@@ -597,31 +589,31 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B25">
-        <v>13389971305.800001</v>
+        <v>6694985652.9000006</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B26">
-        <v>30044063132.600002</v>
+        <v>13389971305.800001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B27">
-        <v>7511015783.1500006</v>
+        <v>30044063132.600002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B28">
         <v>7511015783.1500006</v>
@@ -629,7 +621,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B29">
         <v>7511015783.1500006</v>
@@ -637,7 +629,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B30">
         <v>7511015783.1500006</v>
@@ -645,31 +637,31 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B31">
-        <v>15022031566.300001</v>
+        <v>7511015783.1500006</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B32">
-        <v>30044063132.600002</v>
+        <v>15022031566.300001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B33">
-        <v>7511015783.1500006</v>
+        <v>30044063132.600002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B34">
         <v>7511015783.1500006</v>
@@ -677,7 +669,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B35">
         <v>7511015783.1500006</v>
@@ -685,7 +677,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B36">
         <v>7511015783.1500006</v>
@@ -693,31 +685,31 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B37">
-        <v>15022031566.300001</v>
+        <v>7511015783.1500006</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B38">
-        <v>26879347135</v>
+        <v>15022031566.300001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B39">
-        <v>6719836783.75</v>
+        <v>26879347135</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B40">
         <v>6719836783.75</v>
@@ -725,7 +717,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B41">
         <v>6719836783.75</v>
@@ -733,7 +725,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B42">
         <v>6719836783.75</v>
@@ -741,31 +733,31 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B43">
-        <v>13439673567.5</v>
+        <v>6719836783.75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B44">
-        <v>26879347135</v>
+        <v>13439673567.5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B45">
-        <v>6719836783.75</v>
+        <v>26879347135</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B46">
         <v>6719836783.75</v>
@@ -773,7 +765,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B47">
         <v>6719836783.75</v>
@@ -781,7 +773,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B48">
         <v>6719836783.75</v>
@@ -789,31 +781,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B49">
-        <v>13439673567.5</v>
+        <v>6719836783.75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B50">
-        <v>43181822096.200005</v>
+        <v>13439673567.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B51">
-        <v>10795455524.050001</v>
+        <v>43181822096.200005</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B52">
         <v>10795455524.050001</v>
@@ -821,7 +813,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B53">
         <v>10795455524.050001</v>
@@ -829,7 +821,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B54">
         <v>10795455524.050001</v>
@@ -837,31 +829,31 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B55">
-        <v>21590911048.100002</v>
+        <v>10795455524.050001</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B56">
-        <v>43181822096.200005</v>
+        <v>21590911048.100002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B57">
-        <v>10795455524.050001</v>
+        <v>43181822096.200005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B58">
         <v>10795455524.050001</v>
@@ -869,7 +861,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B59">
         <v>10795455524.050001</v>
@@ -877,7 +869,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B60">
         <v>10795455524.050001</v>
@@ -885,9 +877,17 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B61">
+        <v>10795455524.050001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>44531</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>21590911048.100002</v>
       </c>
     </row>
